--- a/AAII_Financials/Quarterly/ADVV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADVV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>ADVV</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1548,8 +1548,8 @@
       <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1606,8 +1606,8 @@
       <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1635,8 +1635,8 @@
       <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1664,8 +1664,8 @@
       <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1693,8 +1693,8 @@
       <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+      <c r="G46" s="3">
+        <v>1100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1743,16 +1743,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7700</v>
+        <v>5300</v>
       </c>
       <c r="E48" s="3">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="F48" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>6200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1771,17 +1771,17 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1867,8 +1867,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1925,8 +1925,8 @@
       <c r="F54" s="3">
         <v>10700</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+      <c r="G54" s="3">
+        <v>9500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,8 +1980,8 @@
       <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2009,8 +2009,8 @@
       <c r="F58" s="3">
         <v>19200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>17300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2038,8 +2038,8 @@
       <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2067,8 +2067,8 @@
       <c r="F60" s="3">
         <v>20900</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+      <c r="G60" s="3">
+        <v>18600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2241,8 +2241,8 @@
       <c r="F66" s="3">
         <v>20900</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+      <c r="G66" s="3">
+        <v>18500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2399,8 +2399,8 @@
       <c r="F72" s="3">
         <v>-13600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>-12600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2515,8 +2515,8 @@
       <c r="F76" s="3">
         <v>-10200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+      <c r="G76" s="3">
+        <v>-9100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
